--- a/KatalonData/Bootstrap/VT-Misc-Data.xlsx
+++ b/KatalonData/Bootstrap/VT-Misc-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KatalonData\Bootstrap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF221B95-4B17-4798-9D94-B071A6789AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D21339-512D-4CBE-9C79-F22298F64C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="8" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}"/>
+    <workbookView xWindow="6405" yWindow="1560" windowWidth="17670" windowHeight="13890" tabRatio="899" firstSheet="3" activeTab="8" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sale-EncryptedUDF" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="175">
   <si>
     <t>Result</t>
   </si>
@@ -562,6 +562,12 @@
   </si>
   <si>
     <t>Card Notaccepted</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>a_Access FDMS Copy 19</t>
   </si>
 </sst>
 </file>
@@ -5297,8 +5303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D2A2F-57A5-4477-9C97-296B6400B44D}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5405,10 +5411,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>172</v>
@@ -5476,10 +5482,10 @@
         <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>172</v>

--- a/KatalonData/Bootstrap/VT-Misc-Data.xlsx
+++ b/KatalonData/Bootstrap/VT-Misc-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D21339-512D-4CBE-9C79-F22298F64C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F896DA-5F07-45BB-94EE-2404FA32FBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="1560" windowWidth="17670" windowHeight="13890" tabRatio="899" firstSheet="3" activeTab="8" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="899" activeTab="8" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sale-EncryptedUDF" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="176">
   <si>
     <t>Result</t>
   </si>
@@ -564,10 +564,13 @@
     <t>Card Notaccepted</t>
   </si>
   <si>
-    <t>665</t>
-  </si>
-  <si>
-    <t>a_Access FDMS Copy 19</t>
+    <t>656</t>
+  </si>
+  <si>
+    <t>a_Access ParcelVRelay27NoCF</t>
+  </si>
+  <si>
+    <t>374245002771003</t>
   </si>
 </sst>
 </file>
@@ -631,14 +634,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1245,6 +1246,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1253,7 +1257,7 @@
   <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1980,6 +1984,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2653,6 +2660,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2666,17 +2676,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="25.85546875" style="3"/>
+    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="25.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2740,6 +2750,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2747,43 +2760,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE1261-B725-4177-BF21-774BDC019B75}">
   <dimension ref="A1:AK18"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="32.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="3" customWidth="1"/>
-    <col min="14" max="16" width="9.140625" style="3"/>
-    <col min="17" max="17" width="28.140625" style="3" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="3"/>
-    <col min="20" max="20" width="25" style="3" customWidth="1"/>
-    <col min="21" max="22" width="9.140625" style="3"/>
-    <col min="23" max="23" width="17.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="16" style="3" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="18.85546875" style="3" customWidth="1"/>
-    <col min="28" max="28" width="13.85546875" style="3" customWidth="1"/>
-    <col min="29" max="29" width="21.28515625" style="3" customWidth="1"/>
-    <col min="30" max="30" width="22" style="3" customWidth="1"/>
-    <col min="31" max="31" width="24.42578125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="21.85546875" style="3" customWidth="1"/>
-    <col min="33" max="33" width="18.7109375" style="3" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" style="3"/>
-    <col min="35" max="35" width="30.42578125" style="3" customWidth="1"/>
-    <col min="36" max="36" width="25.28515625" style="3" customWidth="1"/>
-    <col min="37" max="37" width="26" style="3" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="10.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="32.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="28.140625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="2"/>
+    <col min="20" max="20" width="25" style="2" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" style="2"/>
+    <col min="23" max="23" width="17.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="16" style="2" customWidth="1"/>
+    <col min="26" max="26" width="19.140625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="18.85546875" style="2" customWidth="1"/>
+    <col min="28" max="28" width="13.85546875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="21.28515625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="22" style="2" customWidth="1"/>
+    <col min="31" max="31" width="24.42578125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="21.85546875" style="2" customWidth="1"/>
+    <col min="33" max="33" width="18.7109375" style="2" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" style="2"/>
+    <col min="35" max="35" width="30.42578125" style="2" customWidth="1"/>
+    <col min="36" max="36" width="25.28515625" style="2" customWidth="1"/>
+    <col min="37" max="37" width="26" style="2" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3224,7 +3237,7 @@
       <c r="S5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" t="s">
         <v>134</v>
       </c>
       <c r="V5" s="1" t="s">
@@ -3272,7 +3285,7 @@
       <c r="AJ5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AK5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4517,6 +4530,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -4598,73 +4614,73 @@
       <c r="J1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AH1" s="1" t="s">
@@ -4681,67 +4697,67 @@
       <c r="F2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3">
         <v>45681001</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3">
         <v>256072691</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="3">
         <v>11.5</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AG2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="AH2" s="1" t="s">
@@ -4758,69 +4774,69 @@
       <c r="F3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="3">
         <v>256072691</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="3">
         <v>11.5</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AC3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AF3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AG3" s="3" t="s">
         <v>50</v>
       </c>
       <c r="AH3" s="1" t="s">
@@ -4829,6 +4845,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -4908,70 +4927,70 @@
       <c r="J1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4985,69 +5004,72 @@
       <c r="F2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="3">
         <v>256072691</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -5296,15 +5318,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D2A2F-57A5-4477-9C97-296B6400B44D}">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:X3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5320,7 +5345,7 @@
     <col min="14" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5375,38 +5400,8 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -5423,7 +5418,7 @@
         <v>56</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>35</v>
@@ -5446,38 +5441,8 @@
       <c r="R2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -5494,7 +5459,7 @@
         <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>35</v>
@@ -5516,39 +5481,12 @@
       </c>
       <c r="R3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/KatalonData/Bootstrap/VT-Misc-Data.xlsx
+++ b/KatalonData/Bootstrap/VT-Misc-Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F896DA-5F07-45BB-94EE-2404FA32FBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4C943A-2EB1-43B3-A106-5D1C0215A063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="899" activeTab="8" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="176">
   <si>
     <t>Result</t>
   </si>
@@ -2761,7 +2761,7 @@
   <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD9" sqref="A9:XFD9"/>
+      <selection activeCell="D2" sqref="D2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2913,6 +2913,9 @@
       </c>
     </row>
     <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>70</v>
       </c>
@@ -3005,6 +3008,9 @@
       </c>
     </row>
     <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>70</v>
       </c>
@@ -3097,6 +3103,9 @@
       </c>
     </row>
     <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>70</v>
       </c>
@@ -3192,6 +3201,9 @@
       </c>
     </row>
     <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>70</v>
       </c>
@@ -3290,6 +3302,9 @@
       </c>
     </row>
     <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
@@ -3385,6 +3400,9 @@
       </c>
     </row>
     <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
@@ -3480,6 +3498,9 @@
       </c>
     </row>
     <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
@@ -3575,6 +3596,9 @@
       </c>
     </row>
     <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>70</v>
       </c>
@@ -3670,6 +3694,9 @@
       </c>
     </row>
     <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
@@ -3765,6 +3792,9 @@
       </c>
     </row>
     <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
@@ -3860,6 +3890,9 @@
       </c>
     </row>
     <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
@@ -4053,6 +4086,9 @@
       </c>
     </row>
     <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>70</v>
       </c>
@@ -4148,6 +4184,9 @@
       </c>
     </row>
     <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>70</v>
       </c>
@@ -4243,6 +4282,9 @@
       </c>
     </row>
     <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>70</v>
       </c>
@@ -4337,7 +4379,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="5:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>70</v>
       </c>
@@ -4432,7 +4477,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="5:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>70</v>
       </c>

--- a/KatalonData/Bootstrap/VT-Misc-Data.xlsx
+++ b/KatalonData/Bootstrap/VT-Misc-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4C943A-2EB1-43B3-A106-5D1C0215A063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99425815-7D7B-4C54-9CC9-8C920C6AD2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="899" activeTab="8" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="899" activeTab="4" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sale-EncryptedUDF" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="198">
   <si>
     <t>Result</t>
   </si>
@@ -571,6 +571,72 @@
   </si>
   <si>
     <t>374245002771003</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 19:11:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 19:12:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 19:14:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 19:15:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 19:16:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 19:16:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 19:17:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 19:18:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 19:19:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 19:20:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 19:21:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 19:22:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 19:22:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 19:23:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 19:24:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 19:25:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 19:28:42 EST 2024</t>
+  </si>
+  <si>
+    <t>7038946699</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 19:42:16 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -965,19 +1031,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12.140625" style="1"/>
-    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="30.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" style="1" customWidth="1"/>
-    <col min="11" max="13" width="12.140625" style="1"/>
-    <col min="14" max="14" width="24.42578125" style="1" customWidth="1"/>
-    <col min="15" max="29" width="12.140625" style="1"/>
-    <col min="30" max="30" width="20.42578125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="12.140625" style="1"/>
-    <col min="32" max="32" width="24.7109375" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="12.140625" style="1"/>
+    <col min="1" max="4" width="12.140625" style="1" collapsed="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="30.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="13" width="12.140625" style="1" collapsed="1"/>
+    <col min="14" max="14" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="29" width="12.140625" style="1" collapsed="1"/>
+    <col min="30" max="30" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.140625" style="1" collapsed="1"/>
+    <col min="32" max="32" width="24.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="16384" width="12.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -1262,43 +1328,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.42578125" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="12.140625" style="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="4.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="5.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="5.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="18.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="16384" width="12.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2000,44 +2066,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" style="1" customWidth="1"/>
-    <col min="20" max="20" width="27.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.42578125" style="1" customWidth="1"/>
-    <col min="37" max="37" width="25.140625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="12.140625" style="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="4.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="27.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="5.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="18.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="25.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="12.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2676,17 +2742,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="25.85546875" style="2"/>
+    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="31.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="25.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2758,45 +2824,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE1261-B725-4177-BF21-774BDC019B75}">
-  <dimension ref="A1:AK18"/>
+  <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="10.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="32.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="2" customWidth="1"/>
-    <col min="14" max="16" width="9.140625" style="2"/>
-    <col min="17" max="17" width="28.140625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="2"/>
-    <col min="20" max="20" width="25" style="2" customWidth="1"/>
-    <col min="21" max="22" width="9.140625" style="2"/>
-    <col min="23" max="23" width="17.7109375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="16" style="2" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="18.85546875" style="2" customWidth="1"/>
-    <col min="28" max="28" width="13.85546875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="21.28515625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="22" style="2" customWidth="1"/>
-    <col min="31" max="31" width="24.42578125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="21.85546875" style="2" customWidth="1"/>
-    <col min="33" max="33" width="18.7109375" style="2" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" style="2"/>
-    <col min="35" max="35" width="30.42578125" style="2" customWidth="1"/>
-    <col min="36" max="36" width="25.28515625" style="2" customWidth="1"/>
-    <col min="37" max="37" width="26" style="2" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="10.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="31.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="9.140625" style="2" collapsed="1"/>
+    <col min="17" max="17" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="9.140625" style="2" collapsed="1"/>
+    <col min="20" max="20" width="25" style="2" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="22.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="9.140625" style="2" collapsed="1"/>
+    <col min="23" max="23" width="17.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="16" style="2" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="18.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="21.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="22" style="2" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="24.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="21.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="18.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.140625" style="2" collapsed="1"/>
+    <col min="35" max="35" width="30.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="25.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="26" style="2" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2913,6 +2982,12 @@
       </c>
     </row>
     <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -3008,6 +3083,12 @@
       </c>
     </row>
     <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -3103,6 +3184,12 @@
       </c>
     </row>
     <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
@@ -3201,6 +3288,12 @@
       </c>
     </row>
     <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3302,6 +3395,12 @@
       </c>
     </row>
     <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
@@ -3400,6 +3499,12 @@
       </c>
     </row>
     <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
@@ -3498,6 +3603,12 @@
       </c>
     </row>
     <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
@@ -3596,6 +3707,12 @@
       </c>
     </row>
     <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
@@ -3694,6 +3811,12 @@
       </c>
     </row>
     <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s">
+        <v>184</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3792,6 +3915,12 @@
       </c>
     </row>
     <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" t="s">
+        <v>185</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
@@ -3890,6 +4019,12 @@
       </c>
     </row>
     <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
@@ -3988,6 +4123,12 @@
       </c>
     </row>
     <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
@@ -4086,6 +4227,12 @@
       </c>
     </row>
     <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" t="s">
+        <v>188</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
@@ -4184,6 +4331,12 @@
       </c>
     </row>
     <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
@@ -4282,6 +4435,12 @@
       </c>
     </row>
     <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" t="s">
+        <v>190</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
@@ -4379,7 +4538,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="4:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
@@ -4477,7 +4642,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="4:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" t="s">
+        <v>192</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>31</v>
       </c>
@@ -4573,6 +4744,113 @@
       </c>
       <c r="AK18" s="1" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4594,41 +4872,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="74.42578125" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="50.5703125" style="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="42.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="74.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="16384" width="50.5703125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -4909,39 +5187,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="50.5703125" style="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="42.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="16384" width="50.5703125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -5131,15 +5409,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12.140625" style="1"/>
-    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="12.140625" style="1"/>
-    <col min="13" max="13" width="24.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="12.140625" style="1"/>
+    <col min="1" max="4" width="12.140625" style="1" collapsed="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="12.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="12.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -5376,21 +5654,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D2A2F-57A5-4477-9C97-296B6400B44D}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12.140625" style="1"/>
-    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="12.140625" style="1"/>
-    <col min="13" max="13" width="24.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="12.140625" style="1"/>
+    <col min="1" max="4" width="12.140625" style="1" collapsed="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="12.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="12.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">

--- a/KatalonData/Bootstrap/VT-Misc-Data.xlsx
+++ b/KatalonData/Bootstrap/VT-Misc-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99425815-7D7B-4C54-9CC9-8C920C6AD2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C1DADF-7CEC-4628-8675-B841C9EBC105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="899" activeTab="4" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}"/>
+    <workbookView xWindow="2550" yWindow="2100" windowWidth="24525" windowHeight="14010" tabRatio="899" activeTab="5" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sale-EncryptedUDF" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="FieldValidationError" sheetId="6" r:id="rId3"/>
     <sheet name="SearchTransactions" sheetId="7" r:id="rId4"/>
     <sheet name="SaleSearchTransactions" sheetId="8" r:id="rId5"/>
-    <sheet name="ConfirmAcNumError" sheetId="9" r:id="rId6"/>
-    <sheet name="Debit-CAN" sheetId="10" r:id="rId7"/>
-    <sheet name="Sale-CAN" sheetId="11" r:id="rId8"/>
-    <sheet name="Sale-CardNotAccepted" sheetId="12" r:id="rId9"/>
+    <sheet name="PersonalSearchTransactions" sheetId="13" r:id="rId6"/>
+    <sheet name="ConfirmAcNumError" sheetId="9" r:id="rId7"/>
+    <sheet name="Debit-CAN" sheetId="10" r:id="rId8"/>
+    <sheet name="Sale-CAN" sheetId="11" r:id="rId9"/>
+    <sheet name="Sale-CardNotAccepted" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="256">
   <si>
     <t>Result</t>
   </si>
@@ -576,67 +577,241 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Tue Mar 05 19:11:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 19:12:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 19:14:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 19:15:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 19:16:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 19:16:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 19:17:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 19:18:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 19:19:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 19:20:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 19:21:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 19:22:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 19:22:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 19:23:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 19:24:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 19:25:25 EST 2024</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Tue Mar 05 19:28:42 EST 2024</t>
-  </si>
-  <si>
     <t>7038946699</t>
   </si>
   <si>
     <t>Phone Number</t>
   </si>
   <si>
-    <t>Tue Mar 05 19:42:16 EST 2024</t>
+    <t>Tue Mar 12 19:45:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 12 19:45:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 12 19:46:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 12 19:47:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 12 19:48:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 12 19:49:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 12 19:50:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 12 19:51:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 12 19:51:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 12 19:52:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 12 19:53:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 12 19:54:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 12 19:55:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 12 19:56:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 12 19:56:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 12 19:57:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 12 19:58:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 13:46:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>NameV</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Gordonas</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>Veronika</t>
+  </si>
+  <si>
+    <t>Inouye</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>Bette</t>
+  </si>
+  <si>
+    <t>Nicka</t>
+  </si>
+  <si>
+    <t>6 S 33rd St</t>
+  </si>
+  <si>
+    <t>apt #2</t>
+  </si>
+  <si>
+    <t>45681003</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>BETTE NICKA</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>Alisha</t>
+  </si>
+  <si>
+    <t>Slusarski</t>
+  </si>
+  <si>
+    <t>3273 State St</t>
+  </si>
+  <si>
+    <t>apt #4</t>
+  </si>
+  <si>
+    <t>45681004</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>ACH last 4 digit</t>
+  </si>
+  <si>
+    <t>45687390</t>
+  </si>
+  <si>
+    <t>7390</t>
+  </si>
+  <si>
+    <t>Alishaslusarski@gmail.com</t>
+  </si>
+  <si>
+    <t>18.50</t>
+  </si>
+  <si>
+    <t>Veronika Inouye</t>
+  </si>
+  <si>
+    <t>Tadap Tadap ke</t>
+  </si>
+  <si>
+    <t>Is Dil Se</t>
+  </si>
+  <si>
+    <t>Aah Nikalti Rahi</t>
+  </si>
+  <si>
+    <t>To lut Gaye</t>
+  </si>
+  <si>
+    <t>Hum Teri Chahat main</t>
+  </si>
+  <si>
+    <t>Ajab hai yaara</t>
+  </si>
+  <si>
+    <t>Pal do Pal ki</t>
+  </si>
+  <si>
+    <t>Khushiya magar</t>
+  </si>
+  <si>
+    <t>7038943598</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 16:42:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 16:43:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 16:44:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 16:45:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 16:46:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 16:47:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 16:47:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 16:48:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 16:49:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 16:50:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 16:51:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 16:52:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 16:53:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 16:53:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>John Gordonas</t>
+  </si>
+  <si>
+    <t>Bette Nicka</t>
+  </si>
+  <si>
+    <t>Alisha Slusarski</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 21:27:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 21:28:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 21:29:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 21:30:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Defect</t>
   </si>
 </sst>
 </file>
@@ -1318,6 +1493,173 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D2A2F-57A5-4477-9C97-296B6400B44D}">
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="12.140625" style="1" collapsed="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="12.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="12.140625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D0227F-6E51-424B-BFCC-C4083DCC9ECD}">
   <dimension ref="A1:AJ7"/>
@@ -2826,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE1261-B725-4177-BF21-774BDC019B75}">
   <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1:AK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2986,10 +3328,7 @@
         <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>70</v>
@@ -3087,10 +3426,7 @@
         <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>70</v>
@@ -3185,13 +3521,10 @@
     </row>
     <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>70</v>
@@ -3292,10 +3625,7 @@
         <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>70</v>
@@ -3399,10 +3729,7 @@
         <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
@@ -3503,10 +3830,7 @@
         <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
@@ -3607,10 +3931,7 @@
         <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>70</v>
@@ -3711,10 +4032,7 @@
         <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>70</v>
@@ -3815,10 +4133,7 @@
         <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
@@ -3919,10 +4234,7 @@
         <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
@@ -4023,10 +4335,7 @@
         <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
@@ -4127,10 +4436,7 @@
         <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>70</v>
@@ -4231,10 +4537,7 @@
         <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>70</v>
@@ -4335,10 +4638,7 @@
         <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>70</v>
@@ -4439,10 +4739,7 @@
         <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>70</v>
@@ -4543,10 +4840,7 @@
         <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>70</v>
@@ -4647,10 +4941,7 @@
         <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>70</v>
@@ -4748,7 +5039,7 @@
     </row>
     <row r="19" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
         <v>197</v>
@@ -4802,7 +5093,7 @@
         <v>110</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>41</v>
@@ -4847,10 +5138,10 @@
         <v>117</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4863,6 +5154,2027 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF6F86-8ED4-4308-B6F8-71B93F250506}">
+  <dimension ref="A1:AJ19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="33.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="42.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="15" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="17.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="5.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="16.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="16384" width="50.5703125" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3">
+        <v>45681001</v>
+      </c>
+      <c r="S2" s="3">
+        <v>256072691</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V2" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ2" s="1"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="S3" s="3">
+        <v>256072691</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V3" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ3" s="1"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="S4" s="3">
+        <v>256072691</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V4" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="S5" s="3">
+        <v>256072691</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V5" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3">
+        <v>45681001</v>
+      </c>
+      <c r="S6" s="3">
+        <v>256072691</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="S7" s="3">
+        <v>256072691</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V7" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="S8" s="3">
+        <v>256072691</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V8" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="S9" s="3">
+        <v>256072691</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V9" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3">
+        <v>45681001</v>
+      </c>
+      <c r="S10" s="3">
+        <v>256072691</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V10" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="S11" s="3">
+        <v>256072691</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V11" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="S12" s="3">
+        <v>256072691</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V12" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="S13" s="3">
+        <v>256072691</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V13" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3">
+        <v>45681001</v>
+      </c>
+      <c r="S14" s="3">
+        <v>256072691</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V14" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="S15" s="3">
+        <v>256072691</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V15" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="S16" s="3">
+        <v>256072691</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V16" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="S17" s="3">
+        <v>256072691</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V17" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3">
+        <v>45681001</v>
+      </c>
+      <c r="S18" s="3">
+        <v>256072691</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V18" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="S19" s="3">
+        <v>256072691</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V19" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E68805-B27C-428C-BFE2-4FA9EF8F5B1E}">
   <dimension ref="A1:AH3"/>
   <sheetViews>
@@ -5177,7 +7489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9839FF8-C1B0-4ABF-93FF-3EB28089C08C}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
@@ -5399,7 +7711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58603BCF-4622-4E65-9487-561DE995DE00}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
@@ -5648,171 +7960,4 @@
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D2A2F-57A5-4477-9C97-296B6400B44D}">
-  <dimension ref="A1:R3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="12.140625" style="1" collapsed="1"/>
-    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="12.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="12.140625" style="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/KatalonData/Bootstrap/VT-Misc-Data.xlsx
+++ b/KatalonData/Bootstrap/VT-Misc-Data.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C1DADF-7CEC-4628-8675-B841C9EBC105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{08C1DADF-7CEC-4628-8675-B841C9EBC105}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2100" windowWidth="24525" windowHeight="14010" tabRatio="899" activeTab="5" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}"/>
+    <workbookView activeTab="5" tabRatio="899" windowHeight="14010" windowWidth="24525" xWindow="2550" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}" yWindow="2100"/>
   </bookViews>
   <sheets>
-    <sheet name="Sale-EncryptedUDF" sheetId="1" r:id="rId1"/>
-    <sheet name="Capture-MoreError" sheetId="2" r:id="rId2"/>
-    <sheet name="FieldValidationError" sheetId="6" r:id="rId3"/>
-    <sheet name="SearchTransactions" sheetId="7" r:id="rId4"/>
-    <sheet name="SaleSearchTransactions" sheetId="8" r:id="rId5"/>
-    <sheet name="PersonalSearchTransactions" sheetId="13" r:id="rId6"/>
-    <sheet name="ConfirmAcNumError" sheetId="9" r:id="rId7"/>
-    <sheet name="Debit-CAN" sheetId="10" r:id="rId8"/>
-    <sheet name="Sale-CAN" sheetId="11" r:id="rId9"/>
-    <sheet name="Sale-CardNotAccepted" sheetId="12" r:id="rId10"/>
+    <sheet name="Sale-EncryptedUDF" r:id="rId1" sheetId="1"/>
+    <sheet name="Capture-MoreError" r:id="rId2" sheetId="2"/>
+    <sheet name="FieldValidationError" r:id="rId3" sheetId="6"/>
+    <sheet name="SearchTransactions" r:id="rId4" sheetId="7"/>
+    <sheet name="SaleSearchTransactions" r:id="rId5" sheetId="8"/>
+    <sheet name="PersonalSearchTransactions" r:id="rId6" sheetId="13"/>
+    <sheet name="ConfirmAcNumError" r:id="rId7" sheetId="9"/>
+    <sheet name="Debit-CAN" r:id="rId8" sheetId="10"/>
+    <sheet name="Sale-CAN" r:id="rId9" sheetId="11"/>
+    <sheet name="Sale-CardNotAccepted" r:id="rId10" sheetId="12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="275">
   <si>
     <t>Result</t>
   </si>
@@ -812,12 +812,70 @@
   </si>
   <si>
     <t>Defect</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mon Mar 18 22:46:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 22:47:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 22:48:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 22:49:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 22:50:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 22:51:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 22:51:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 22:52:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 22:53:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 22:54:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 22:55:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 22:56:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 22:56:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 22:57:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 22:58:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 22:59:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 23:00:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 18 23:01:06 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -873,23 +931,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -906,10 +964,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -944,7 +1002,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -996,7 +1054,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1107,21 +1165,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1138,7 +1196,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1190,15 +1248,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03923135-EB1A-448D-835E-7A1175975924}">
-  <dimension ref="A1:AF3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03923135-EB1A-448D-835E-7A1175975924}">
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -1206,19 +1264,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12.140625" style="1" collapsed="1"/>
-    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="30.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="13" width="12.140625" style="1" collapsed="1"/>
-    <col min="14" max="14" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="29" width="12.140625" style="1" collapsed="1"/>
-    <col min="30" max="30" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.140625" style="1" collapsed="1"/>
-    <col min="32" max="32" width="24.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="16384" width="12.140625" style="1" collapsed="1"/>
+    <col min="1" max="4" style="1" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="1" width="30.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="30.5703125" collapsed="true"/>
+    <col min="11" max="13" style="1" width="12.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="15" max="29" style="1" width="12.140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="31" max="31" style="1" width="12.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="24.7109375" collapsed="true"/>
+    <col min="33" max="16384" style="1" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -1486,7 +1544,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1494,8 +1552,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D2A2F-57A5-4477-9C97-296B6400B44D}">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D2A2F-57A5-4477-9C97-296B6400B44D}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
@@ -1503,15 +1561,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12.140625" style="1" collapsed="1"/>
-    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="12.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="12.140625" style="1" collapsed="1"/>
+    <col min="1" max="4" style="1" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="34.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="30.5703125" collapsed="true"/>
+    <col min="10" max="12" style="1" width="12.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="14" max="16384" style="1" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -1653,7 +1711,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1661,55 +1719,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D0227F-6E51-424B-BFCC-C4083DCC9ECD}">
-  <dimension ref="A1:AJ7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D0227F-6E51-424B-BFCC-C4083DCC9ECD}">
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.140625" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="4.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="5.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="5.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="18.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="16384" width="12.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="31.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="28.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="32.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="4.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="5.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="7.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="16.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="5.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="18.42578125" collapsed="true"/>
+    <col min="37" max="16384" style="1" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1819,7 +1877,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1914,7 +1972,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2009,7 +2067,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
@@ -2104,7 +2162,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2199,7 +2257,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2294,7 +2352,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2391,7 +2449,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2399,56 +2457,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55730CF5-7BB7-4109-818A-846914C1A1E6}">
-  <dimension ref="A1:AK6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55730CF5-7BB7-4109-818A-846914C1A1E6}">
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.140625" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="4.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="27.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="5.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="18.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="25.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="12.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="31.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="28.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="32.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="4.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="7.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="16.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="5.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="18.42578125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="38" max="16384" style="1" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2561,7 +2619,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -2662,7 +2720,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2763,7 +2821,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
@@ -2864,7 +2922,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2965,7 +3023,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
@@ -3067,7 +3125,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3075,8 +3133,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A29DF0-E80A-4D1A-9523-089EBE8AD58D}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A29DF0-E80A-4D1A-9523-089EBE8AD58D}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD6"/>
@@ -3084,17 +3142,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="31.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="25.85546875" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="5.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="6.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="26.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="29.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="10.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="31.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="2" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3156,8 +3214,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3165,8 +3223,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE1261-B725-4177-BF21-774BDC019B75}">
-  <dimension ref="A1:AK19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE1261-B725-4177-BF21-774BDC019B75}">
+  <dimension ref="A1:AL19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AJ1" sqref="AJ1:AK1048576"/>
@@ -3174,43 +3232,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="10.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="31.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="9.140625" style="2" collapsed="1"/>
-    <col min="17" max="17" width="28.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="9.140625" style="2" collapsed="1"/>
-    <col min="20" max="20" width="25" style="2" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="9.140625" style="2" collapsed="1"/>
-    <col min="23" max="23" width="17.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="16" style="2" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="19.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="21.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="22" style="2" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="24.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="21.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="18.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.140625" style="2" collapsed="1"/>
-    <col min="35" max="35" width="30.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="25.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="26" style="2" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="26.5703125" collapsed="true"/>
+    <col min="3" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="10.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="25.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="28.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="32.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="31.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="2" width="18.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="14" max="16" style="2" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="18" max="19" style="2" width="9.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="2" width="25.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
+    <col min="22" max="22" style="2" width="9.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="2" width="17.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="2" width="16.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="2" width="19.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="2" width="18.85546875" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="2" width="13.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="2" width="21.28515625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="2" width="22.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="2" width="24.42578125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="2" width="18.7109375" collapsed="true"/>
+    <col min="34" max="34" style="2" width="9.140625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="2" width="25.28515625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="2" width="26.0" collapsed="true"/>
+    <col min="38" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3323,7 +3381,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -3421,7 +3479,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -3519,7 +3577,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -3620,7 +3678,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -3724,7 +3782,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -3825,7 +3883,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>176</v>
       </c>
@@ -3926,7 +3984,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -4027,7 +4085,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>176</v>
       </c>
@@ -4128,7 +4186,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -4229,7 +4287,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -4330,7 +4388,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>176</v>
       </c>
@@ -4431,7 +4489,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>176</v>
       </c>
@@ -4532,7 +4590,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -4633,7 +4691,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>176</v>
       </c>
@@ -4734,7 +4792,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -4835,7 +4893,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>176</v>
       </c>
@@ -4936,7 +4994,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>176</v>
       </c>
@@ -5037,7 +5095,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>177</v>
       </c>
@@ -5145,8 +5203,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -5154,8 +5212,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF6F86-8ED4-4308-B6F8-71B93F250506}">
-  <dimension ref="A1:AJ19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF6F86-8ED4-4308-B6F8-71B93F250506}">
+  <dimension ref="A1:AK19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D19"/>
@@ -5163,43 +5221,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="33.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="42.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="20.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="17.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="5.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="16.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="16384" width="50.5703125" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="22.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="28.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="32.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="33.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="42.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="13.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.5703125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="15.0" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="5.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="16.85546875" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
+    <col min="37" max="16384" style="1" width="50.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -5317,7 +5375,7 @@
         <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
@@ -5418,7 +5476,7 @@
         <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>31</v>
@@ -5519,7 +5577,7 @@
         <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>255</v>
@@ -5625,7 +5683,7 @@
         <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>31</v>
@@ -5730,7 +5788,7 @@
         <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
@@ -5833,7 +5891,7 @@
         <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
@@ -5936,7 +5994,7 @@
         <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
@@ -6039,7 +6097,7 @@
         <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -6142,7 +6200,7 @@
         <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
@@ -6245,7 +6303,7 @@
         <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
@@ -6348,7 +6406,7 @@
         <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>31</v>
@@ -6451,7 +6509,7 @@
         <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>31</v>
@@ -6554,7 +6612,7 @@
         <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>31</v>
@@ -6657,7 +6715,7 @@
         <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
@@ -6760,7 +6818,7 @@
         <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>31</v>
@@ -6863,7 +6921,7 @@
         <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>31</v>
@@ -6966,7 +7024,7 @@
         <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>31</v>
@@ -7069,7 +7127,7 @@
         <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>31</v>
@@ -7170,13 +7228,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E68805-B27C-428C-BFE2-4FA9EF8F5B1E}">
-  <dimension ref="A1:AH3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E68805-B27C-428C-BFE2-4FA9EF8F5B1E}">
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -7184,41 +7242,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="42.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="74.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="16384" width="50.5703125" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="22.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="28.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="32.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="42.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="7.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="74.42578125" collapsed="true"/>
+    <col min="35" max="16384" style="1" width="50.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -7402,7 +7460,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -7482,7 +7540,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -7490,8 +7548,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9839FF8-C1B0-4ABF-93FF-3EB28089C08C}">
-  <dimension ref="A1:AF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9839FF8-C1B0-4ABF-93FF-3EB28089C08C}">
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -7499,39 +7557,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="42.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="16384" width="50.5703125" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="22.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="28.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="32.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="42.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="7.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="33" max="16384" style="1" width="50.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -7704,7 +7762,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -7712,8 +7770,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58603BCF-4622-4E65-9487-561DE995DE00}">
-  <dimension ref="A1:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58603BCF-4622-4E65-9487-561DE995DE00}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -7721,15 +7779,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12.140625" style="1" collapsed="1"/>
-    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="12.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="12.140625" style="1" collapsed="1"/>
+    <col min="1" max="4" style="1" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="32.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="30.5703125" collapsed="true"/>
+    <col min="10" max="12" style="1" width="12.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="14" max="16384" style="1" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -7955,7 +8013,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/Bootstrap/VT-Misc-Data.xlsx
+++ b/KatalonData/Bootstrap/VT-Misc-Data.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="294">
   <si>
     <t>Result</t>
   </si>
@@ -869,6 +869,63 @@
   </si>
   <si>
     <t>Mon Mar 18 23:01:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:01:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:02:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:03:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:04:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:04:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:05:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:06:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:07:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:08:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:09:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:10:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:11:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:11:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:12:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:13:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:14:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:15:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:16:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Jul 13 23:17:13 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -5097,10 +5154,10 @@
     </row>
     <row customFormat="1" r="19" s="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>31</v>
@@ -5375,7 +5432,7 @@
         <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
@@ -5476,7 +5533,7 @@
         <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>31</v>
@@ -5574,10 +5631,10 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>255</v>
@@ -5683,7 +5740,7 @@
         <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>31</v>
@@ -5788,7 +5845,7 @@
         <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
@@ -5891,7 +5948,7 @@
         <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
@@ -5994,7 +6051,7 @@
         <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
@@ -6097,7 +6154,7 @@
         <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -6200,7 +6257,7 @@
         <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
@@ -6303,7 +6360,7 @@
         <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
@@ -6406,7 +6463,7 @@
         <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>31</v>
@@ -6509,7 +6566,7 @@
         <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>31</v>
@@ -6612,7 +6669,7 @@
         <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>31</v>
@@ -6715,7 +6772,7 @@
         <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
@@ -6818,7 +6875,7 @@
         <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>31</v>
@@ -6921,7 +6978,7 @@
         <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>31</v>
@@ -7024,7 +7081,7 @@
         <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>31</v>
@@ -7124,10 +7181,10 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>31</v>

--- a/KatalonData/Bootstrap/VT-Misc-Data.xlsx
+++ b/KatalonData/Bootstrap/VT-Misc-Data.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{08C1DADF-7CEC-4628-8675-B841C9EBC105}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8285F87-7184-4028-A05C-F4A85B0D8950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="5" tabRatio="899" windowHeight="14010" windowWidth="24525" xWindow="2550" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}" yWindow="2100"/>
+    <workbookView xWindow="2355" yWindow="3075" windowWidth="25710" windowHeight="10710" tabRatio="899" activeTab="4" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sale-EncryptedUDF" r:id="rId1" sheetId="1"/>
-    <sheet name="Capture-MoreError" r:id="rId2" sheetId="2"/>
-    <sheet name="FieldValidationError" r:id="rId3" sheetId="6"/>
-    <sheet name="SearchTransactions" r:id="rId4" sheetId="7"/>
-    <sheet name="SaleSearchTransactions" r:id="rId5" sheetId="8"/>
-    <sheet name="PersonalSearchTransactions" r:id="rId6" sheetId="13"/>
-    <sheet name="ConfirmAcNumError" r:id="rId7" sheetId="9"/>
-    <sheet name="Debit-CAN" r:id="rId8" sheetId="10"/>
-    <sheet name="Sale-CAN" r:id="rId9" sheetId="11"/>
-    <sheet name="Sale-CardNotAccepted" r:id="rId10" sheetId="12"/>
+    <sheet name="Sale-EncryptedUDF" sheetId="1" r:id="rId1"/>
+    <sheet name="Capture-MoreError" sheetId="2" r:id="rId2"/>
+    <sheet name="FieldValidationError" sheetId="6" r:id="rId3"/>
+    <sheet name="SearchTransactions" sheetId="7" r:id="rId4"/>
+    <sheet name="SaleSearchTransactions" sheetId="8" r:id="rId5"/>
+    <sheet name="PersonalSearchTransactions" sheetId="13" r:id="rId6"/>
+    <sheet name="ConfirmAcNumError" sheetId="9" r:id="rId7"/>
+    <sheet name="Debit-CAN" sheetId="10" r:id="rId8"/>
+    <sheet name="Sale-CAN" sheetId="11" r:id="rId9"/>
+    <sheet name="Sale-CardNotAccepted" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="256">
   <si>
     <t>Result</t>
   </si>
@@ -577,9 +577,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>7038946699</t>
   </si>
   <si>
@@ -637,9 +634,6 @@
     <t>Tue Mar 12 19:58:35 EDT 2024</t>
   </si>
   <si>
-    <t>Mon Mar 18 13:46:16 EDT 2024</t>
-  </si>
-  <si>
     <t>NameV</t>
   </si>
   <si>
@@ -748,48 +742,6 @@
     <t>7038943598</t>
   </si>
   <si>
-    <t>Mon Mar 18 16:42:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 16:43:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 16:44:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 16:45:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 16:46:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 16:47:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 16:47:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 16:48:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 16:49:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 16:50:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 16:51:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 16:52:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 16:53:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 16:53:54 EDT 2024</t>
-  </si>
-  <si>
     <t>John Gordonas</t>
   </si>
   <si>
@@ -799,78 +751,9 @@
     <t>Alisha Slusarski</t>
   </si>
   <si>
-    <t>Mon Mar 18 21:27:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 21:28:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 21:29:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 21:30:30 EDT 2024</t>
-  </si>
-  <si>
     <t>Defect</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Mon Mar 18 22:46:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 22:47:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 22:48:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 22:49:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 22:50:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 22:51:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 22:51:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 22:52:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 22:53:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 22:54:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 22:55:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 22:56:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 22:56:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 22:57:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 22:58:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 22:59:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 23:00:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 18 23:01:06 EDT 2024</t>
-  </si>
-  <si>
     <t>Sat Jul 13 23:01:25 EDT 2024</t>
   </si>
   <si>
@@ -926,13 +809,15 @@
   </si>
   <si>
     <t>Sat Jul 13 23:17:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>2408939844</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -988,23 +873,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1017,14 +902,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1057,9 +942,9 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1111,7 +996,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1163,7 +1048,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1222,21 +1107,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1253,7 +1138,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1305,15 +1190,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03923135-EB1A-448D-835E-7A1175975924}">
-  <dimension ref="A1:AG3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03923135-EB1A-448D-835E-7A1175975924}">
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -1321,19 +1206,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" style="1" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" style="1" width="30.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="22.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="30.5703125" collapsed="true"/>
-    <col min="11" max="13" style="1" width="12.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="15" max="29" style="1" width="12.140625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
-    <col min="31" max="31" style="1" width="12.140625" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="1" width="24.7109375" collapsed="true"/>
-    <col min="33" max="16384" style="1" width="12.140625" collapsed="true"/>
+    <col min="1" max="4" width="12.140625" style="1" collapsed="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="30.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="13" width="12.140625" style="1" collapsed="1"/>
+    <col min="14" max="14" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="29" width="12.140625" style="1" collapsed="1"/>
+    <col min="30" max="30" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.140625" style="1" collapsed="1"/>
+    <col min="32" max="32" width="24.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="16384" width="12.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -1601,7 +1486,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1609,8 +1494,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D2A2F-57A5-4477-9C97-296B6400B44D}">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D2A2F-57A5-4477-9C97-296B6400B44D}">
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
@@ -1618,15 +1503,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" style="1" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="34.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="22.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="30.5703125" collapsed="true"/>
-    <col min="10" max="12" style="1" width="12.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="14" max="16384" style="1" width="12.140625" collapsed="true"/>
+    <col min="1" max="4" width="12.140625" style="1" collapsed="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="12.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="12.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -1768,7 +1653,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1776,55 +1661,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D0227F-6E51-424B-BFCC-C4083DCC9ECD}">
-  <dimension ref="A1:AK7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D0227F-6E51-424B-BFCC-C4083DCC9ECD}">
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.140625" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="31.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="28.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="4.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="5.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="7.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="16.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="5.42578125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="1" width="18.42578125" collapsed="true"/>
-    <col min="37" max="16384" style="1" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="4.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="5.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="5.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="18.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="16384" width="12.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="19.5" r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1819,7 @@
         <v>69</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -2029,7 +1914,7 @@
         <v>96</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2124,7 +2009,7 @@
         <v>96</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
@@ -2219,7 +2104,7 @@
         <v>96</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2314,7 +2199,7 @@
         <v>96</v>
       </c>
     </row>
-    <row ht="15" r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2409,7 +2294,7 @@
         <v>96</v>
       </c>
     </row>
-    <row ht="15" r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2506,7 +2391,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2514,56 +2399,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55730CF5-7BB7-4109-818A-846914C1A1E6}">
-  <dimension ref="A1:AL6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55730CF5-7BB7-4109-818A-846914C1A1E6}">
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.140625" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="31.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="28.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="4.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="7.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="16.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="5.42578125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="1" width="18.42578125" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="38" max="16384" style="1" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="4.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="27.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="5.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="18.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="25.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="12.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="19.5" r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2676,7 +2561,7 @@
         <v>102</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -2777,7 +2662,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2878,7 +2763,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
@@ -2979,7 +2864,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3080,7 +2965,7 @@
         <v>103</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
@@ -3182,7 +3067,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3190,8 +3075,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A29DF0-E80A-4D1A-9523-089EBE8AD58D}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A29DF0-E80A-4D1A-9523-089EBE8AD58D}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD6"/>
@@ -3199,17 +3084,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="5.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="6.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="26.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="29.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="10.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="31.85546875" collapsed="true"/>
-    <col min="11" max="16384" style="2" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="31.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="25.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3271,8 +3156,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3280,52 +3165,52 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE1261-B725-4177-BF21-774BDC019B75}">
-  <dimension ref="A1:AL19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE1261-B725-4177-BF21-774BDC019B75}">
+  <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1:AK1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M8" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="26.5703125" collapsed="true"/>
-    <col min="3" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="10.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="25.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="28.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="13.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="32.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="2" width="31.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="2" width="18.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="14" max="16" style="2" width="9.140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="2" width="28.140625" collapsed="true"/>
-    <col min="18" max="19" style="2" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="2" width="25.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
-    <col min="22" max="22" style="2" width="9.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="2" width="17.7109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="2" width="16.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="2" width="19.140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="2" width="18.85546875" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="2" width="13.85546875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="2" width="21.28515625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="2" width="22.0" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="2" width="24.42578125" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="2" width="18.7109375" collapsed="true"/>
-    <col min="34" max="34" style="2" width="9.140625" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="2" width="25.28515625" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="2" width="26.0" collapsed="true"/>
-    <col min="38" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="10.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="31.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="9.140625" style="2" collapsed="1"/>
+    <col min="17" max="17" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="9.140625" style="2" collapsed="1"/>
+    <col min="20" max="20" width="25" style="2" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="22.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="9.140625" style="2" collapsed="1"/>
+    <col min="23" max="23" width="17.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="16" style="2" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="18.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="21.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="22" style="2" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="24.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="21.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="18.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.140625" style="2" collapsed="1"/>
+    <col min="35" max="35" width="30.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="25.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="26" style="2" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3438,12 +3323,12 @@
         <v>135</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>70</v>
@@ -3536,12 +3421,12 @@
         <v>119</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>70</v>
@@ -3634,12 +3519,12 @@
         <v>120</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>70</v>
@@ -3735,12 +3620,12 @@
         <v>83</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>70</v>
@@ -3839,12 +3724,12 @@
         <v>134</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
@@ -3940,12 +3825,12 @@
         <v>136</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
@@ -4041,12 +3926,12 @@
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>70</v>
@@ -4142,12 +4027,12 @@
         <v>117</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>70</v>
@@ -4243,12 +4128,12 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
@@ -4344,12 +4229,12 @@
         <v>112</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
@@ -4445,12 +4330,12 @@
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
@@ -4546,12 +4431,12 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>70</v>
@@ -4647,12 +4532,12 @@
         <v>137</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>70</v>
@@ -4748,12 +4633,12 @@
         <v>138</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>70</v>
@@ -4849,12 +4734,12 @@
         <v>115</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>70</v>
@@ -4950,12 +4835,12 @@
         <v>116</v>
       </c>
     </row>
-    <row customFormat="1" r="17" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>70</v>
@@ -5051,12 +4936,12 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>70</v>
@@ -5152,12 +5037,12 @@
         <v>112</v>
       </c>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>31</v>
@@ -5208,7 +5093,7 @@
         <v>110</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>41</v>
@@ -5253,15 +5138,15 @@
         <v>117</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -5269,52 +5154,52 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF6F86-8ED4-4308-B6F8-71B93F250506}">
-  <dimension ref="A1:AK19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF6F86-8ED4-4308-B6F8-71B93F250506}">
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="22.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="28.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="33.140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="42.42578125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="13.42578125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.5703125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="5.42578125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="16.85546875" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
-    <col min="37" max="16384" style="1" width="50.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="33.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="42.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="15" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="17.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="5.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="16.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="16384" width="50.5703125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -5415,7 +5300,7 @@
         <v>27</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>29</v>
@@ -5432,7 +5317,7 @@
         <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
@@ -5456,10 +5341,10 @@
         <v>75</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>147</v>
@@ -5518,10 +5403,10 @@
         <v>50</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>119</v>
@@ -5533,7 +5418,7 @@
         <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>31</v>
@@ -5557,10 +5442,10 @@
         <v>75</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>151</v>
@@ -5619,10 +5504,10 @@
         <v>50</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AI3" s="1" t="s">
         <v>120</v>
@@ -5634,10 +5519,10 @@
         <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
@@ -5661,16 +5546,16 @@
         <v>75</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>40</v>
@@ -5678,13 +5563,13 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S4" s="3">
         <v>256072691</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>150</v>
@@ -5723,16 +5608,16 @@
         <v>50</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AI4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -5740,7 +5625,7 @@
         <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>31</v>
@@ -5764,32 +5649,32 @@
         <v>75</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S5" s="3">
         <v>256072691</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>154</v>
@@ -5828,16 +5713,16 @@
         <v>50</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AI5" s="1" t="s">
         <v>122</v>
       </c>
       <c r="AJ5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -5845,7 +5730,7 @@
         <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
@@ -5869,10 +5754,10 @@
         <v>75</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>147</v>
@@ -5898,7 +5783,7 @@
         <v>150</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>43</v>
@@ -5931,16 +5816,16 @@
         <v>50</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -5948,7 +5833,7 @@
         <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
@@ -5972,10 +5857,10 @@
         <v>75</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>151</v>
@@ -6034,16 +5919,16 @@
         <v>50</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
@@ -6051,7 +5936,7 @@
         <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
@@ -6075,16 +5960,16 @@
         <v>75</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>40</v>
@@ -6092,13 +5977,13 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S8" s="3">
         <v>256072691</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>150</v>
@@ -6137,16 +6022,16 @@
         <v>50</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AI8" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -6154,7 +6039,7 @@
         <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -6178,16 +6063,16 @@
         <v>75</v>
       </c>
       <c r="K9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>40</v>
@@ -6195,13 +6080,13 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S9" s="3">
         <v>256072691</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>154</v>
@@ -6210,7 +6095,7 @@
         <v>11.5</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>42</v>
@@ -6240,16 +6125,16 @@
         <v>50</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AI9" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
@@ -6257,7 +6142,7 @@
         <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
@@ -6281,10 +6166,10 @@
         <v>75</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>147</v>
@@ -6316,7 +6201,7 @@
         <v>43</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>45</v>
@@ -6343,16 +6228,16 @@
         <v>50</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AI10" s="1" t="s">
         <v>125</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
@@ -6360,7 +6245,7 @@
         <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
@@ -6384,10 +6269,10 @@
         <v>75</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>151</v>
@@ -6422,7 +6307,7 @@
         <v>42</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>44</v>
@@ -6446,16 +6331,16 @@
         <v>50</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>126</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
@@ -6463,7 +6348,7 @@
         <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>31</v>
@@ -6487,16 +6372,16 @@
         <v>75</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>40</v>
@@ -6504,13 +6389,13 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S12" s="3">
         <v>256072691</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>150</v>
@@ -6528,7 +6413,7 @@
         <v>45</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>47</v>
@@ -6549,16 +6434,16 @@
         <v>50</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AI12" s="1" t="s">
         <v>127</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
@@ -6566,7 +6451,7 @@
         <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>31</v>
@@ -6590,16 +6475,16 @@
         <v>75</v>
       </c>
       <c r="K13" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>40</v>
@@ -6607,13 +6492,13 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S13" s="3">
         <v>256072691</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>154</v>
@@ -6652,10 +6537,10 @@
         <v>50</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AI13" s="1" t="s">
         <v>128</v>
@@ -6669,7 +6554,7 @@
         <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>31</v>
@@ -6693,10 +6578,10 @@
         <v>75</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>147</v>
@@ -6755,10 +6640,10 @@
         <v>50</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AI14" s="1" t="s">
         <v>129</v>
@@ -6772,7 +6657,7 @@
         <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
@@ -6796,10 +6681,10 @@
         <v>75</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>151</v>
@@ -6846,7 +6731,7 @@
         <v>46</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AD15" s="3" t="s">
         <v>48</v>
@@ -6858,16 +6743,16 @@
         <v>50</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AI15" s="1" t="s">
         <v>130</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
@@ -6875,7 +6760,7 @@
         <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>31</v>
@@ -6899,16 +6784,16 @@
         <v>75</v>
       </c>
       <c r="K16" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>40</v>
@@ -6916,13 +6801,13 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S16" s="3">
         <v>256072691</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U16" s="3" t="s">
         <v>150</v>
@@ -6952,7 +6837,7 @@
         <v>49</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AE16" s="3" t="s">
         <v>51</v>
@@ -6961,16 +6846,16 @@
         <v>50</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AI16" s="1" t="s">
         <v>131</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
@@ -6978,7 +6863,7 @@
         <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>31</v>
@@ -7002,16 +6887,16 @@
         <v>75</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>40</v>
@@ -7019,13 +6904,13 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S17" s="3">
         <v>256072691</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>154</v>
@@ -7058,22 +6943,22 @@
         <v>48</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AF17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AI17" s="1" t="s">
         <v>132</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
@@ -7081,7 +6966,7 @@
         <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>31</v>
@@ -7105,10 +6990,10 @@
         <v>75</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>147</v>
@@ -7164,19 +7049,19 @@
         <v>51</v>
       </c>
       <c r="AF18" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG18" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AG18" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="AH18" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AI18" s="1" t="s">
         <v>133</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
@@ -7184,7 +7069,7 @@
         <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>31</v>
@@ -7208,10 +7093,10 @@
         <v>75</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>151</v>
@@ -7224,7 +7109,7 @@
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>153</v>
@@ -7272,26 +7157,26 @@
         <v>50</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E68805-B27C-428C-BFE2-4FA9EF8F5B1E}">
-  <dimension ref="A1:AI3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E68805-B27C-428C-BFE2-4FA9EF8F5B1E}">
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -7299,41 +7184,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="22.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="28.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="42.42578125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="7.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="1" width="74.42578125" collapsed="true"/>
-    <col min="35" max="16384" style="1" width="50.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="42.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="74.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="16384" width="50.5703125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -7517,7 +7402,7 @@
         <v>161</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -7597,7 +7482,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -7605,8 +7490,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9839FF8-C1B0-4ABF-93FF-3EB28089C08C}">
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9839FF8-C1B0-4ABF-93FF-3EB28089C08C}">
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -7614,39 +7499,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="22.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="28.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="42.42578125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="7.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
-    <col min="33" max="16384" style="1" width="50.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="42.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="16384" width="50.5703125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -7819,7 +7704,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -7827,8 +7712,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58603BCF-4622-4E65-9487-561DE995DE00}">
-  <dimension ref="A1:AC3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58603BCF-4622-4E65-9487-561DE995DE00}">
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -7836,15 +7721,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" style="1" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="32.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="22.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="30.5703125" collapsed="true"/>
-    <col min="10" max="12" style="1" width="12.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="14" max="16384" style="1" width="12.140625" collapsed="true"/>
+    <col min="1" max="4" width="12.140625" style="1" collapsed="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="12.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="12.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -8070,7 +7955,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/Bootstrap/VT-Misc-Data.xlsx
+++ b/KatalonData/Bootstrap/VT-Misc-Data.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8285F87-7184-4028-A05C-F4A85B0D8950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C3A6C211-8CA1-4128-8C86-A7584615AAED}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="3075" windowWidth="25710" windowHeight="10710" tabRatio="899" activeTab="4" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}"/>
+    <workbookView activeTab="9" tabRatio="899" windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}" yWindow="-3945"/>
   </bookViews>
   <sheets>
-    <sheet name="Sale-EncryptedUDF" sheetId="1" r:id="rId1"/>
-    <sheet name="Capture-MoreError" sheetId="2" r:id="rId2"/>
-    <sheet name="FieldValidationError" sheetId="6" r:id="rId3"/>
-    <sheet name="SearchTransactions" sheetId="7" r:id="rId4"/>
-    <sheet name="SaleSearchTransactions" sheetId="8" r:id="rId5"/>
-    <sheet name="PersonalSearchTransactions" sheetId="13" r:id="rId6"/>
-    <sheet name="ConfirmAcNumError" sheetId="9" r:id="rId7"/>
-    <sheet name="Debit-CAN" sheetId="10" r:id="rId8"/>
-    <sheet name="Sale-CAN" sheetId="11" r:id="rId9"/>
-    <sheet name="Sale-CardNotAccepted" sheetId="12" r:id="rId10"/>
+    <sheet name="Sale-EncryptedUDF" r:id="rId1" sheetId="1"/>
+    <sheet name="Capture-MoreError" r:id="rId2" sheetId="2"/>
+    <sheet name="FieldValidationError" r:id="rId3" sheetId="6"/>
+    <sheet name="SearchTransactions" r:id="rId4" sheetId="7"/>
+    <sheet name="SaleSearchTransactions" r:id="rId5" sheetId="8"/>
+    <sheet name="PersonalSearchTransactions" r:id="rId6" sheetId="13"/>
+    <sheet name="ConfirmAcNumError" r:id="rId7" sheetId="9"/>
+    <sheet name="Debit-CAN" r:id="rId8" sheetId="10"/>
+    <sheet name="Sale-CAN" r:id="rId9" sheetId="11"/>
+    <sheet name="Sale-CardNotAccepted" r:id="rId10" sheetId="12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="295">
   <si>
     <t>Result</t>
   </si>
@@ -754,9 +754,6 @@
     <t>Defect</t>
   </si>
   <si>
-    <t>Sat Jul 13 23:01:25 EDT 2024</t>
-  </si>
-  <si>
     <t>Sat Jul 13 23:02:20 EDT 2024</t>
   </si>
   <si>
@@ -812,12 +809,133 @@
   </si>
   <si>
     <t>2408939844</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 21:59:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Phone Number has been disabled in QA2</t>
+  </si>
+  <si>
+    <t>Do Not Run</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:10:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:11:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:11:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:12:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:13:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:13:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:14:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:15:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:15:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:16:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:16:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:17:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:18:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:18:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:19:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:20:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:20:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:21:33 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:22:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:23:17 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:24:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:24:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:25:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:26:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:27:33 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:28:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:29:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:30:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:30:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:31:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:32:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:33:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:34:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:35:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 18 22:36:03 EDT 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -873,23 +991,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -906,10 +1024,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -944,7 +1062,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -996,7 +1114,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1107,21 +1225,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1138,7 +1256,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1190,38 +1308,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03923135-EB1A-448D-835E-7A1175975924}">
-  <dimension ref="A1:AF3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03923135-EB1A-448D-835E-7A1175975924}">
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="12.140625" style="1" collapsed="1"/>
-    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="30.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="13" width="12.140625" style="1" collapsed="1"/>
-    <col min="14" max="14" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="29" width="12.140625" style="1" collapsed="1"/>
-    <col min="30" max="30" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.140625" style="1" collapsed="1"/>
-    <col min="32" max="32" width="24.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="16384" width="12.140625" style="1" collapsed="1"/>
+    <col min="1" max="4" style="1" width="12.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="1" width="30.1796875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="30.54296875" collapsed="true"/>
+    <col min="11" max="13" style="1" width="12.1796875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="24.453125" collapsed="true"/>
+    <col min="15" max="29" style="1" width="12.1796875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="20.453125" collapsed="true"/>
+    <col min="31" max="31" style="1" width="12.1796875" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="24.7265625" collapsed="true"/>
+    <col min="33" max="16384" style="1" width="12.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1402,7 +1520,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1486,7 +1604,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1494,27 +1612,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D2A2F-57A5-4477-9C97-296B6400B44D}">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D2A2F-57A5-4477-9C97-296B6400B44D}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="12.140625" style="1" collapsed="1"/>
-    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="12.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="12.140625" style="1" collapsed="1"/>
+    <col min="1" max="4" style="1" width="12.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="34.54296875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="30.54296875" collapsed="true"/>
+    <col min="10" max="12" style="1" width="12.1796875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="24.453125" collapsed="true"/>
+    <col min="14" max="16384" style="1" width="12.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1611,7 +1729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1653,7 +1771,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1661,55 +1779,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D0227F-6E51-424B-BFCC-C4083DCC9ECD}">
-  <dimension ref="A1:AJ7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D0227F-6E51-424B-BFCC-C4083DCC9ECD}">
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.1796875" defaultRowHeight="19.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="4.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="5.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="5.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="18.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="16384" width="12.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="31.81640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7265625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="28.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="32.54296875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.26953125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.81640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="17.26953125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="4.26953125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.54296875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="17.453125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="5.81640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.7265625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="7.26953125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.453125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="16.7265625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="5.453125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="13.7265625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="18.453125" collapsed="true"/>
+    <col min="37" max="16384" style="1" width="12.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1819,7 +1937,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1914,7 +2032,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2009,7 +2127,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
@@ -2104,7 +2222,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2199,7 +2317,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row ht="14.5" r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2294,7 +2412,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row ht="14.5" r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2391,7 +2509,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2399,56 +2517,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55730CF5-7BB7-4109-818A-846914C1A1E6}">
-  <dimension ref="A1:AK6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55730CF5-7BB7-4109-818A-846914C1A1E6}">
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.1796875" defaultRowHeight="19.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="4.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="27.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="5.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="18.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="25.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="12.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="31.81640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7265625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="28.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="32.54296875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.26953125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.81640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="17.26953125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="4.26953125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.54296875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="17.453125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="27.7265625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.7265625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="7.26953125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.453125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="16.7265625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="5.453125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="13.7265625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="18.453125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="25.1796875" collapsed="true"/>
+    <col min="38" max="16384" style="1" width="12.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2561,7 +2679,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -2662,7 +2780,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2763,7 +2881,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
@@ -2864,7 +2982,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2965,7 +3083,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row ht="29" r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
@@ -3067,7 +3185,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3075,29 +3193,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A29DF0-E80A-4D1A-9523-089EBE8AD58D}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A29DF0-E80A-4D1A-9523-089EBE8AD58D}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="31.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="25.85546875" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="5.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="6.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="9.1796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="26.81640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="11.7265625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="29.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="10.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="31.81640625" collapsed="true"/>
+    <col min="11" max="16384" style="2" width="25.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3129,7 +3247,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3156,8 +3274,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3165,52 +3283,53 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE1261-B725-4177-BF21-774BDC019B75}">
-  <dimension ref="A1:AK19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE1261-B725-4177-BF21-774BDC019B75}">
+  <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M8" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="10.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="31.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="9.140625" style="2" collapsed="1"/>
-    <col min="17" max="17" width="28.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="9.140625" style="2" collapsed="1"/>
-    <col min="20" max="20" width="25" style="2" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="9.140625" style="2" collapsed="1"/>
-    <col min="23" max="23" width="17.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="16" style="2" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="19.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="21.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="22" style="2" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="24.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="21.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="18.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.140625" style="2" collapsed="1"/>
-    <col min="35" max="35" width="30.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="25.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="26" style="2" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="26.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="20.26953125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.1796875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="10.81640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="25.26953125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="11.81640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="28.54296875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="13.1796875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="32.26953125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="31.81640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="2" width="18.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="2" width="20.7265625" collapsed="true"/>
+    <col min="14" max="16" style="2" width="9.1796875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="2" width="28.1796875" collapsed="true"/>
+    <col min="18" max="19" style="2" width="9.1796875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="2" width="25.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="2" width="22.26953125" collapsed="true"/>
+    <col min="22" max="22" style="2" width="9.1796875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="2" width="17.7265625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="2" width="15.54296875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="2" width="16.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="2" width="19.1796875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="2" width="18.81640625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="2" width="13.81640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="2" width="21.26953125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="2" width="22.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="2" width="24.453125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="2" width="21.81640625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="2" width="18.7265625" collapsed="true"/>
+    <col min="34" max="34" style="2" width="9.1796875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="2" width="30.453125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="2" width="25.26953125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="2" width="26.0" collapsed="true"/>
+    <col min="38" max="16384" style="2" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3323,12 +3442,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>260</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>70</v>
@@ -3421,12 +3543,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>261</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>70</v>
@@ -3519,12 +3644,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>262</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>70</v>
@@ -3620,12 +3748,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>263</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>70</v>
@@ -3724,12 +3855,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>264</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
@@ -3825,12 +3959,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>265</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
@@ -3926,12 +4063,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>266</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>70</v>
@@ -4027,12 +4167,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>267</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>70</v>
@@ -4128,12 +4271,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>268</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
@@ -4229,12 +4375,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>269</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
@@ -4330,12 +4479,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>270</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
@@ -4431,12 +4583,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>271</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>70</v>
@@ -4532,12 +4687,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>272</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>70</v>
@@ -4633,12 +4791,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>273</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>70</v>
@@ -4734,12 +4895,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>274</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>70</v>
@@ -4835,12 +4999,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>275</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>70</v>
@@ -4936,12 +5103,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>276</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>70</v>
@@ -5037,15 +5207,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="29" r="19" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>256</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>70</v>
@@ -5093,7 +5266,7 @@
         <v>110</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>41</v>
@@ -5145,8 +5318,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -5154,55 +5327,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF6F86-8ED4-4308-B6F8-71B93F250506}">
-  <dimension ref="A1:AJ19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF6F86-8ED4-4308-B6F8-71B93F250506}">
+  <dimension ref="A1:AK19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="50.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="33.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="42.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="20.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="17.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="5.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="16.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="16384" width="50.5703125" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="22.26953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7265625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="28.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="32.54296875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.1796875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="19.453125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.26953125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="33.1796875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="19.453125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="12.453125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="42.453125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="14.7265625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="10.81640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="20.7265625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="13.453125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.54296875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="15.0" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="5.453125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="16.81640625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="25.54296875" collapsed="true"/>
+    <col min="37" max="16384" style="1" width="50.54296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5312,12 +5485,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
@@ -5413,12 +5586,12 @@
       </c>
       <c r="AJ2" s="1"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>31</v>
@@ -5514,12 +5687,12 @@
       </c>
       <c r="AJ3" s="1"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>235</v>
@@ -5620,12 +5793,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>31</v>
@@ -5725,12 +5898,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
@@ -5828,12 +6001,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
@@ -5931,12 +6104,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
@@ -6034,12 +6207,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -6137,12 +6310,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
@@ -6240,12 +6413,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
@@ -6343,12 +6516,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>31</v>
@@ -6446,12 +6619,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>31</v>
@@ -6549,12 +6722,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>31</v>
@@ -6652,12 +6825,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
@@ -6755,12 +6928,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>31</v>
@@ -6858,12 +7031,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>31</v>
@@ -6961,12 +7134,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>31</v>
@@ -7064,12 +7237,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="B19" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>31</v>
@@ -7170,58 +7343,58 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E68805-B27C-428C-BFE2-4FA9EF8F5B1E}">
-  <dimension ref="A1:AH3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E68805-B27C-428C-BFE2-4FA9EF8F5B1E}">
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="50.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="42.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="74.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="16384" width="50.5703125" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="22.26953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7265625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="28.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="32.54296875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.1796875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="19.453125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.26953125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.1796875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="12.453125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="42.453125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="7.26953125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.453125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="74.453125" collapsed="true"/>
+    <col min="35" max="16384" style="1" width="50.54296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7325,7 +7498,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -7402,7 +7575,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row ht="29" r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -7482,7 +7655,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -7490,51 +7663,51 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9839FF8-C1B0-4ABF-93FF-3EB28089C08C}">
-  <dimension ref="A1:AF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9839FF8-C1B0-4ABF-93FF-3EB28089C08C}">
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="50.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="42.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="16384" width="50.5703125" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="22.26953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7265625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="28.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="32.54296875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.1796875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="19.453125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.26953125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.1796875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="12.453125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="42.453125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="7.26953125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="11.453125" collapsed="true"/>
+    <col min="33" max="16384" style="1" width="50.54296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7632,7 +7805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -7704,7 +7877,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -7712,27 +7885,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58603BCF-4622-4E65-9487-561DE995DE00}">
-  <dimension ref="A1:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58603BCF-4622-4E65-9487-561DE995DE00}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="12.140625" style="1" collapsed="1"/>
-    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="12.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="12.140625" style="1" collapsed="1"/>
+    <col min="1" max="4" style="1" width="12.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="32.26953125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="30.54296875" collapsed="true"/>
+    <col min="10" max="12" style="1" width="12.1796875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="24.453125" collapsed="true"/>
+    <col min="14" max="16384" style="1" width="12.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7818,7 +7991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -7886,7 +8059,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -7955,7 +8128,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/Bootstrap/VT-Misc-Data.xlsx
+++ b/KatalonData/Bootstrap/VT-Misc-Data.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C3A6C211-8CA1-4128-8C86-A7584615AAED}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7FB720-3811-46BB-AC5D-AB6CE5EB12DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="9" tabRatio="899" windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}" yWindow="-3945"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="899" firstSheet="1" activeTab="2" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sale-EncryptedUDF" r:id="rId1" sheetId="1"/>
-    <sheet name="Capture-MoreError" r:id="rId2" sheetId="2"/>
-    <sheet name="FieldValidationError" r:id="rId3" sheetId="6"/>
-    <sheet name="SearchTransactions" r:id="rId4" sheetId="7"/>
-    <sheet name="SaleSearchTransactions" r:id="rId5" sheetId="8"/>
-    <sheet name="PersonalSearchTransactions" r:id="rId6" sheetId="13"/>
-    <sheet name="ConfirmAcNumError" r:id="rId7" sheetId="9"/>
-    <sheet name="Debit-CAN" r:id="rId8" sheetId="10"/>
-    <sheet name="Sale-CAN" r:id="rId9" sheetId="11"/>
-    <sheet name="Sale-CardNotAccepted" r:id="rId10" sheetId="12"/>
+    <sheet name="Sale-EncryptedUDF" sheetId="1" r:id="rId1"/>
+    <sheet name="Capture-MoreError" sheetId="2" r:id="rId2"/>
+    <sheet name="FieldValidationError" sheetId="6" r:id="rId3"/>
+    <sheet name="SearchTransactions" sheetId="7" r:id="rId4"/>
+    <sheet name="SaleSearchTransactions" sheetId="8" r:id="rId5"/>
+    <sheet name="PersonalSearchTransactions" sheetId="13" r:id="rId6"/>
+    <sheet name="ConfirmAcNumError" sheetId="9" r:id="rId7"/>
+    <sheet name="Debit-CAN" sheetId="10" r:id="rId8"/>
+    <sheet name="Sale-CAN" sheetId="11" r:id="rId9"/>
+    <sheet name="Sale-CardNotAccepted" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="261">
   <si>
     <t>Result</t>
   </si>
@@ -583,57 +583,6 @@
     <t>Phone Number</t>
   </si>
   <si>
-    <t>Tue Mar 12 19:45:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 12 19:45:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 12 19:46:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 12 19:47:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 12 19:48:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 12 19:49:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 12 19:50:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 12 19:51:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 12 19:51:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 12 19:52:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 12 19:53:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 12 19:54:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 12 19:55:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 12 19:56:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 12 19:56:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 12 19:57:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 12 19:58:35 EDT 2024</t>
-  </si>
-  <si>
     <t>NameV</t>
   </si>
   <si>
@@ -754,60 +703,6 @@
     <t>Defect</t>
   </si>
   <si>
-    <t>Sat Jul 13 23:02:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Jul 13 23:03:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Jul 13 23:04:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Jul 13 23:04:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Jul 13 23:05:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Jul 13 23:06:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Jul 13 23:07:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Jul 13 23:08:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Jul 13 23:09:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Jul 13 23:10:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Jul 13 23:11:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Jul 13 23:11:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Jul 13 23:12:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Jul 13 23:13:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Jul 13 23:14:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Jul 13 23:15:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Jul 13 23:16:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Jul 13 23:17:13 EDT 2024</t>
-  </si>
-  <si>
     <t>2408939844</t>
   </si>
   <si>
@@ -823,119 +718,121 @@
     <t>Do Not Run</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:10:25 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:11:06 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:11:46 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:12:25 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:13:04 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:13:42 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:14:22 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:15:01 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:15:40 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:16:19 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:16:58 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:17:38 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:18:16 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:18:56 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:19:35 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:20:15 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:20:54 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:21:33 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:22:25 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:23:17 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:24:08 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:24:59 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:25:51 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:26:43 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:27:33 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:28:24 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:29:14 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:30:05 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:30:56 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:31:47 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:32:38 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:33:29 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:34:20 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:35:11 EDT 2025</t>
-  </si>
-  <si>
-    <t>Mon Aug 18 22:36:03 EDT 2025</t>
+    <t>Tue Aug 19 18:45:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 18:45:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 18:46:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 18:46:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 18:47:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 18:48:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 18:48:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 18:49:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 18:50:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 18:50:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 18:51:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 18:52:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 18:52:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 18:53:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 18:54:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 18:54:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 18:55:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 19:29:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 19:30:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 19:31:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 19:32:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 19:33:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 19:33:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 19:34:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 19:35:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 19:36:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 19:37:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 19:38:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 19:39:02 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 19:39:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 19:40:44 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 19:41:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 19:42:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 19:43:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 19 19:44:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>DoNotRun</t>
+  </si>
+  <si>
+    <t>Phone Number is disabled in QA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -991,23 +888,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1024,10 +921,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1062,7 +959,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1114,7 +1011,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1225,21 +1122,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1256,7 +1153,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1308,15 +1205,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03923135-EB1A-448D-835E-7A1175975924}">
-  <dimension ref="A1:AG3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03923135-EB1A-448D-835E-7A1175975924}">
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -1324,19 +1221,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" style="1" width="12.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" style="1" width="30.1796875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="22.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="30.54296875" collapsed="true"/>
-    <col min="11" max="13" style="1" width="12.1796875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="24.453125" collapsed="true"/>
-    <col min="15" max="29" style="1" width="12.1796875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="1" width="20.453125" collapsed="true"/>
-    <col min="31" max="31" style="1" width="12.1796875" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="1" width="24.7265625" collapsed="true"/>
-    <col min="33" max="16384" style="1" width="12.1796875" collapsed="true"/>
+    <col min="1" max="4" width="12.1796875" style="1" collapsed="1"/>
+    <col min="5" max="5" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="30.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="13" width="12.1796875" style="1" collapsed="1"/>
+    <col min="14" max="14" width="24.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="29" width="12.1796875" style="1" collapsed="1"/>
+    <col min="30" max="30" width="20.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.1796875" style="1" collapsed="1"/>
+    <col min="32" max="32" width="24.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="16384" width="12.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.35">
@@ -1604,7 +1501,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1612,24 +1509,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D2A2F-57A5-4477-9C97-296B6400B44D}">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D2A2F-57A5-4477-9C97-296B6400B44D}">
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" style="1" width="12.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="34.54296875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="22.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="30.54296875" collapsed="true"/>
-    <col min="10" max="12" style="1" width="12.1796875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="24.453125" collapsed="true"/>
-    <col min="14" max="16384" style="1" width="12.1796875" collapsed="true"/>
+    <col min="1" max="4" width="12.1796875" style="1" collapsed="1"/>
+    <col min="5" max="5" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="12.1796875" style="1" collapsed="1"/>
+    <col min="13" max="13" width="24.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="12.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -1771,7 +1668,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1779,55 +1676,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D0227F-6E51-424B-BFCC-C4083DCC9ECD}">
-  <dimension ref="A1:AK7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D0227F-6E51-424B-BFCC-C4083DCC9ECD}">
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.1796875" defaultRowHeight="19.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.1796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="31.81640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7265625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="28.7265625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="32.54296875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.26953125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.81640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="17.26953125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="4.26953125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.54296875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="17.453125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="5.81640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.7265625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="7.26953125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.453125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="16.7265625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="5.453125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="13.7265625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="1" width="18.453125" collapsed="true"/>
-    <col min="37" max="16384" style="1" width="12.1796875" collapsed="true"/>
+    <col min="1" max="1" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="4.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="5.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="7.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="6.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="5.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="18.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="16384" width="12.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="19.5" r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1937,7 +1834,7 @@
         <v>69</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -2032,7 +1929,7 @@
         <v>96</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2127,7 +2024,7 @@
         <v>96</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
@@ -2222,7 +2119,7 @@
         <v>96</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2317,7 +2214,7 @@
         <v>96</v>
       </c>
     </row>
-    <row ht="14.5" r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2412,7 +2309,7 @@
         <v>96</v>
       </c>
     </row>
-    <row ht="14.5" r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2509,7 +2406,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2517,56 +2414,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55730CF5-7BB7-4109-818A-846914C1A1E6}">
-  <dimension ref="A1:AL6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55730CF5-7BB7-4109-818A-846914C1A1E6}">
+  <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.1796875" defaultRowHeight="19.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.1796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="31.81640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7265625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="28.7265625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="32.54296875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.26953125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.81640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="17.26953125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="4.26953125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.54296875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="17.453125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="27.7265625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.7265625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="7.26953125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.453125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="16.7265625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="5.453125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="13.7265625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="1" width="18.453125" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="1" width="25.1796875" collapsed="true"/>
-    <col min="38" max="16384" style="1" width="12.1796875" collapsed="true"/>
+    <col min="1" max="1" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="4.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="27.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="7.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="6.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="5.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="18.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="25.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="12.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="19.5" r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2679,7 +2576,7 @@
         <v>102</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -2780,7 +2677,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2881,7 +2778,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
@@ -2982,7 +2879,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3083,9 +2980,12 @@
         <v>103</v>
       </c>
     </row>
-    <row ht="29" r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" ht="58" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
@@ -3185,7 +3085,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3193,8 +3093,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A29DF0-E80A-4D1A-9523-089EBE8AD58D}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A29DF0-E80A-4D1A-9523-089EBE8AD58D}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD6"/>
@@ -3202,17 +3102,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="6.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="5.1796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="6.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="9.1796875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="26.81640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="11.7265625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="29.1796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="10.54296875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="31.81640625" collapsed="true"/>
-    <col min="11" max="16384" style="2" width="25.81640625" collapsed="true"/>
+    <col min="1" max="1" width="6.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.1796875" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="31.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="25.81640625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -3274,8 +3174,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3283,8 +3183,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE1261-B725-4177-BF21-774BDC019B75}">
-  <dimension ref="A1:AL19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE1261-B725-4177-BF21-774BDC019B75}">
+  <dimension ref="A1:AK19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -3292,44 +3192,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="26.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="20.26953125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.1796875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="10.81640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="25.26953125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="11.81640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="28.54296875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="13.1796875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="32.26953125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="2" width="31.81640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="2" width="18.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="2" width="20.7265625" collapsed="true"/>
-    <col min="14" max="16" style="2" width="9.1796875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="2" width="28.1796875" collapsed="true"/>
-    <col min="18" max="19" style="2" width="9.1796875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="2" width="25.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="2" width="22.26953125" collapsed="true"/>
-    <col min="22" max="22" style="2" width="9.1796875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="2" width="17.7265625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="2" width="15.54296875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="2" width="16.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="2" width="19.1796875" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="2" width="18.81640625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="2" width="13.81640625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="2" width="21.26953125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="2" width="22.0" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="2" width="24.453125" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="2" width="21.81640625" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="2" width="18.7265625" collapsed="true"/>
-    <col min="34" max="34" style="2" width="9.1796875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="2" width="30.453125" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="2" width="25.26953125" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="2" width="26.0" collapsed="true"/>
-    <col min="38" max="16384" style="2" width="9.1796875" collapsed="true"/>
+    <col min="1" max="1" width="9.1796875" style="2" collapsed="1"/>
+    <col min="2" max="2" width="26.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.26953125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.1796875" style="2" collapsed="1"/>
+    <col min="5" max="5" width="10.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.26953125" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.54296875" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.1796875" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.26953125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="31.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.7265625" style="2" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="9.1796875" style="2" collapsed="1"/>
+    <col min="17" max="17" width="28.1796875" style="2" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="9.1796875" style="2" collapsed="1"/>
+    <col min="20" max="20" width="25" style="2" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="22.26953125" style="2" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="9.1796875" style="2" collapsed="1"/>
+    <col min="23" max="23" width="17.7265625" style="2" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.54296875" style="2" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="16" style="2" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.1796875" style="2" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="18.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="21.26953125" style="2" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="22" style="2" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="24.453125" style="2" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="21.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="18.7265625" style="2" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.1796875" style="2" collapsed="1"/>
+    <col min="35" max="35" width="30.453125" style="2" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="25.26953125" style="2" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="26" style="2" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.1796875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3442,12 +3342,12 @@
         <v>135</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
@@ -3543,12 +3443,12 @@
         <v>119</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>31</v>
@@ -3644,12 +3544,12 @@
         <v>120</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
@@ -3748,12 +3648,12 @@
         <v>83</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>31</v>
@@ -3855,12 +3755,12 @@
         <v>134</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
@@ -3959,12 +3859,12 @@
         <v>136</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
@@ -4063,12 +3963,12 @@
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
@@ -4167,12 +4067,12 @@
         <v>117</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -4271,12 +4171,12 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
@@ -4375,12 +4275,12 @@
         <v>112</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
@@ -4479,12 +4379,12 @@
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>31</v>
@@ -4583,12 +4483,12 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>31</v>
@@ -4687,12 +4587,12 @@
         <v>137</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>31</v>
@@ -4791,12 +4691,12 @@
         <v>138</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
@@ -4895,12 +4795,12 @@
         <v>115</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>31</v>
@@ -4999,12 +4899,12 @@
         <v>116</v>
       </c>
     </row>
-    <row customFormat="1" r="17" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>31</v>
@@ -5103,12 +5003,12 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>31</v>
@@ -5207,18 +5107,18 @@
         <v>112</v>
       </c>
     </row>
-    <row customFormat="1" ht="29" r="19" s="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>70</v>
@@ -5266,7 +5166,7 @@
         <v>110</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>41</v>
@@ -5318,8 +5218,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -5327,52 +5227,52 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF6F86-8ED4-4308-B6F8-71B93F250506}">
-  <dimension ref="A1:AK19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF6F86-8ED4-4308-B6F8-71B93F250506}">
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D19"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="22.26953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7265625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="28.7265625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="32.54296875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.1796875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="19.453125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.26953125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="33.1796875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="19.453125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="12.453125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="42.453125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="14.7265625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="10.81640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="20.7265625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="13.453125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.54296875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="5.453125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="16.81640625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="25.54296875" collapsed="true"/>
-    <col min="37" max="16384" style="1" width="50.54296875" collapsed="true"/>
+    <col min="1" max="1" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="33.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="42.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="14.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="15" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="17.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="5.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="16.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="25.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="16384" width="50.54296875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -5473,7 +5373,7 @@
         <v>27</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>29</v>
@@ -5490,7 +5390,7 @@
         <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
@@ -5514,10 +5414,10 @@
         <v>75</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>147</v>
@@ -5576,10 +5476,10 @@
         <v>50</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>119</v>
@@ -5591,7 +5491,7 @@
         <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>31</v>
@@ -5615,10 +5515,10 @@
         <v>75</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>151</v>
@@ -5677,10 +5577,10 @@
         <v>50</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="AI3" s="1" t="s">
         <v>120</v>
@@ -5692,10 +5592,10 @@
         <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
@@ -5719,16 +5619,16 @@
         <v>75</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>40</v>
@@ -5736,13 +5636,13 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="S4" s="3">
         <v>256072691</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>150</v>
@@ -5781,16 +5681,16 @@
         <v>50</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
@@ -5798,7 +5698,7 @@
         <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>31</v>
@@ -5822,32 +5722,32 @@
         <v>75</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="S5" s="3">
         <v>256072691</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>154</v>
@@ -5886,16 +5786,16 @@
         <v>50</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="AI5" s="1" t="s">
         <v>122</v>
       </c>
       <c r="AJ5" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
@@ -5903,7 +5803,7 @@
         <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
@@ -5927,10 +5827,10 @@
         <v>75</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>147</v>
@@ -5956,7 +5856,7 @@
         <v>150</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>43</v>
@@ -5989,16 +5889,16 @@
         <v>50</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
@@ -6006,7 +5906,7 @@
         <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
@@ -6030,10 +5930,10 @@
         <v>75</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>151</v>
@@ -6092,16 +5992,16 @@
         <v>50</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.35">
@@ -6109,7 +6009,7 @@
         <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
@@ -6133,16 +6033,16 @@
         <v>75</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>40</v>
@@ -6150,13 +6050,13 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="S8" s="3">
         <v>256072691</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>150</v>
@@ -6195,16 +6095,16 @@
         <v>50</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="AI8" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
@@ -6212,7 +6112,7 @@
         <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -6236,16 +6136,16 @@
         <v>75</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>40</v>
@@ -6253,13 +6153,13 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="S9" s="3">
         <v>256072691</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>154</v>
@@ -6268,7 +6168,7 @@
         <v>11.5</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>42</v>
@@ -6298,16 +6198,16 @@
         <v>50</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="AI9" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
@@ -6315,7 +6215,7 @@
         <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
@@ -6339,10 +6239,10 @@
         <v>75</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>147</v>
@@ -6374,7 +6274,7 @@
         <v>43</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>45</v>
@@ -6401,16 +6301,16 @@
         <v>50</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="AI10" s="1" t="s">
         <v>125</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
@@ -6418,7 +6318,7 @@
         <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
@@ -6442,10 +6342,10 @@
         <v>75</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>151</v>
@@ -6480,7 +6380,7 @@
         <v>42</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>44</v>
@@ -6504,16 +6404,16 @@
         <v>50</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>126</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.35">
@@ -6521,7 +6421,7 @@
         <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>31</v>
@@ -6545,16 +6445,16 @@
         <v>75</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>40</v>
@@ -6562,13 +6462,13 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="S12" s="3">
         <v>256072691</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>150</v>
@@ -6586,7 +6486,7 @@
         <v>45</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>47</v>
@@ -6607,16 +6507,16 @@
         <v>50</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="AI12" s="1" t="s">
         <v>127</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.35">
@@ -6624,7 +6524,7 @@
         <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>31</v>
@@ -6648,16 +6548,16 @@
         <v>75</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>40</v>
@@ -6665,13 +6565,13 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="S13" s="3">
         <v>256072691</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>154</v>
@@ -6710,10 +6610,10 @@
         <v>50</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="AI13" s="1" t="s">
         <v>128</v>
@@ -6727,7 +6627,7 @@
         <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>31</v>
@@ -6751,10 +6651,10 @@
         <v>75</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>147</v>
@@ -6813,10 +6713,10 @@
         <v>50</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="AI14" s="1" t="s">
         <v>129</v>
@@ -6830,7 +6730,7 @@
         <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
@@ -6854,10 +6754,10 @@
         <v>75</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>151</v>
@@ -6904,7 +6804,7 @@
         <v>46</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="AD15" s="3" t="s">
         <v>48</v>
@@ -6916,16 +6816,16 @@
         <v>50</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="AI15" s="1" t="s">
         <v>130</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.35">
@@ -6933,7 +6833,7 @@
         <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>31</v>
@@ -6957,16 +6857,16 @@
         <v>75</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>40</v>
@@ -6974,13 +6874,13 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="S16" s="3">
         <v>256072691</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="U16" s="3" t="s">
         <v>150</v>
@@ -7010,7 +6910,7 @@
         <v>49</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="AE16" s="3" t="s">
         <v>51</v>
@@ -7019,16 +6919,16 @@
         <v>50</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="AI16" s="1" t="s">
         <v>131</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
@@ -7036,7 +6936,7 @@
         <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>31</v>
@@ -7060,16 +6960,16 @@
         <v>75</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>40</v>
@@ -7077,13 +6977,13 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="S17" s="3">
         <v>256072691</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>154</v>
@@ -7116,22 +7016,22 @@
         <v>48</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="AF17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="AI17" s="1" t="s">
         <v>132</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.35">
@@ -7139,7 +7039,7 @@
         <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>31</v>
@@ -7163,10 +7063,10 @@
         <v>75</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>147</v>
@@ -7222,30 +7122,33 @@
         <v>51</v>
       </c>
       <c r="AF18" s="3" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="AI18" s="1" t="s">
         <v>133</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s">
-        <v>294</v>
+        <v>258</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>70</v>
@@ -7266,10 +7169,10 @@
         <v>75</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>151</v>
@@ -7282,7 +7185,7 @@
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>153</v>
@@ -7330,26 +7233,26 @@
         <v>50</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="AI19" s="2" t="s">
         <v>178</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E68805-B27C-428C-BFE2-4FA9EF8F5B1E}">
-  <dimension ref="A1:AI3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E68805-B27C-428C-BFE2-4FA9EF8F5B1E}">
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -7357,41 +7260,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.1796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="22.26953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7265625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="28.7265625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="32.54296875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.1796875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="19.453125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.26953125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.1796875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="12.453125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="42.453125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="7.26953125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.453125" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="1" width="74.453125" collapsed="true"/>
-    <col min="35" max="16384" style="1" width="50.54296875" collapsed="true"/>
+    <col min="1" max="1" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="42.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="7.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="6.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="74.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="16384" width="50.54296875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.35">
@@ -7575,7 +7478,7 @@
         <v>161</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" ht="29" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -7655,7 +7558,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -7663,8 +7566,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9839FF8-C1B0-4ABF-93FF-3EB28089C08C}">
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9839FF8-C1B0-4ABF-93FF-3EB28089C08C}">
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -7672,39 +7575,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.1796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="22.26953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7265625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="28.7265625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="32.54296875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.1796875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="19.453125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.26953125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.1796875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="12.453125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="42.453125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="7.26953125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="11.453125" collapsed="true"/>
-    <col min="33" max="16384" style="1" width="50.54296875" collapsed="true"/>
+    <col min="1" max="1" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="42.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="7.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="6.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="16384" width="50.54296875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.35">
@@ -7877,7 +7780,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -7885,8 +7788,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58603BCF-4622-4E65-9487-561DE995DE00}">
-  <dimension ref="A1:AC3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58603BCF-4622-4E65-9487-561DE995DE00}">
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -7894,15 +7797,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" style="1" width="12.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="32.26953125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="22.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="30.54296875" collapsed="true"/>
-    <col min="10" max="12" style="1" width="12.1796875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="24.453125" collapsed="true"/>
-    <col min="14" max="16384" style="1" width="12.1796875" collapsed="true"/>
+    <col min="1" max="4" width="12.1796875" style="1" collapsed="1"/>
+    <col min="5" max="5" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="12.1796875" style="1" collapsed="1"/>
+    <col min="13" max="13" width="24.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="12.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
@@ -8128,7 +8031,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/Bootstrap/VT-Misc-Data.xlsx
+++ b/KatalonData/Bootstrap/VT-Misc-Data.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7FB720-3811-46BB-AC5D-AB6CE5EB12DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8B7FB720-3811-46BB-AC5D-AB6CE5EB12DB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="899" firstSheet="1" activeTab="2" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}"/>
+    <workbookView activeTab="2" firstSheet="1" tabRatio="899" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{F4488FFE-6E25-4FE6-A3E4-075D849B89C6}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="Sale-EncryptedUDF" sheetId="1" r:id="rId1"/>
-    <sheet name="Capture-MoreError" sheetId="2" r:id="rId2"/>
-    <sheet name="FieldValidationError" sheetId="6" r:id="rId3"/>
-    <sheet name="SearchTransactions" sheetId="7" r:id="rId4"/>
-    <sheet name="SaleSearchTransactions" sheetId="8" r:id="rId5"/>
-    <sheet name="PersonalSearchTransactions" sheetId="13" r:id="rId6"/>
-    <sheet name="ConfirmAcNumError" sheetId="9" r:id="rId7"/>
-    <sheet name="Debit-CAN" sheetId="10" r:id="rId8"/>
-    <sheet name="Sale-CAN" sheetId="11" r:id="rId9"/>
-    <sheet name="Sale-CardNotAccepted" sheetId="12" r:id="rId10"/>
+    <sheet name="Sale-EncryptedUDF" r:id="rId1" sheetId="1"/>
+    <sheet name="Capture-MoreError" r:id="rId2" sheetId="2"/>
+    <sheet name="FieldValidationError" r:id="rId3" sheetId="6"/>
+    <sheet name="SearchTransactions" r:id="rId4" sheetId="7"/>
+    <sheet name="SaleSearchTransactions" r:id="rId5" sheetId="8"/>
+    <sheet name="PersonalSearchTransactions" r:id="rId6" sheetId="13"/>
+    <sheet name="ConfirmAcNumError" r:id="rId7" sheetId="9"/>
+    <sheet name="Debit-CAN" r:id="rId8" sheetId="10"/>
+    <sheet name="Sale-CAN" r:id="rId9" sheetId="11"/>
+    <sheet name="Sale-CardNotAccepted" r:id="rId10" sheetId="12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="296">
   <si>
     <t>Result</t>
   </si>
@@ -827,12 +827,118 @@
   </si>
   <si>
     <t>Phone Number is disabled in QA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fri Nov 14 21:58:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 21:59:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:00:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:00:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:01:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:02:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:03:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:03:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:04:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:05:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:06:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:06:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:07:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:08:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:08:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:09:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:10:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:10:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:11:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:12:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:13:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:14:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:15:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:16:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:17:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:18:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:19:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:20:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:21:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:21:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:22:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:23:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:24:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 22:25:33 EST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -888,23 +994,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -921,10 +1027,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -959,7 +1065,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1011,7 +1117,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1122,21 +1228,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1153,7 +1259,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1205,15 +1311,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03923135-EB1A-448D-835E-7A1175975924}">
-  <dimension ref="A1:AF3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03923135-EB1A-448D-835E-7A1175975924}">
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -1221,19 +1327,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="12.1796875" style="1" collapsed="1"/>
-    <col min="5" max="5" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="30.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="13" width="12.1796875" style="1" collapsed="1"/>
-    <col min="14" max="14" width="24.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="29" width="12.1796875" style="1" collapsed="1"/>
-    <col min="30" max="30" width="20.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.1796875" style="1" collapsed="1"/>
-    <col min="32" max="32" width="24.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="16384" width="12.1796875" style="1" collapsed="1"/>
+    <col min="1" max="4" style="1" width="12.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="1" width="30.1796875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="30.54296875" collapsed="true"/>
+    <col min="11" max="13" style="1" width="12.1796875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="24.453125" collapsed="true"/>
+    <col min="15" max="29" style="1" width="12.1796875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="20.453125" collapsed="true"/>
+    <col min="31" max="31" style="1" width="12.1796875" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="24.7265625" collapsed="true"/>
+    <col min="33" max="16384" style="1" width="12.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.35">
@@ -1501,7 +1607,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1509,8 +1615,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D2A2F-57A5-4477-9C97-296B6400B44D}">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D2A2F-57A5-4477-9C97-296B6400B44D}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
@@ -1518,15 +1624,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="12.1796875" style="1" collapsed="1"/>
-    <col min="5" max="5" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="12.1796875" style="1" collapsed="1"/>
-    <col min="13" max="13" width="24.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="12.1796875" style="1" collapsed="1"/>
+    <col min="1" max="4" style="1" width="12.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="34.54296875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="30.54296875" collapsed="true"/>
+    <col min="10" max="12" style="1" width="12.1796875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="24.453125" collapsed="true"/>
+    <col min="14" max="16384" style="1" width="12.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -1668,7 +1774,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1676,55 +1782,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D0227F-6E51-424B-BFCC-C4083DCC9ECD}">
-  <dimension ref="A1:AJ7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D0227F-6E51-424B-BFCC-C4083DCC9ECD}">
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.1796875" defaultRowHeight="19.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="4.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="5.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="6.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="5.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="18.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="16384" width="12.1796875" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="31.81640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7265625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="28.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="32.54296875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.26953125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.81640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="17.26953125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="4.26953125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.54296875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="17.453125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="5.81640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.7265625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="7.26953125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.453125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="16.7265625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="5.453125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="13.7265625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="18.453125" collapsed="true"/>
+    <col min="37" max="16384" style="1" width="12.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="19.5" r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1834,7 +1940,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="19.5" r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1929,7 +2035,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="19.5" r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2024,7 +2130,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="19.5" r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
@@ -2119,7 +2225,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="19.5" r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2214,7 +2320,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row ht="14.5" r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2309,7 +2415,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row ht="14.5" r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2406,7 +2512,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2414,56 +2520,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55730CF5-7BB7-4109-818A-846914C1A1E6}">
-  <dimension ref="A1:AK6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55730CF5-7BB7-4109-818A-846914C1A1E6}">
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.1796875" defaultRowHeight="19.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="4.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="27.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="6.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="5.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="18.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="25.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="12.1796875" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.1796875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="12.7265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="31.81640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7265625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="28.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="32.54296875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.26953125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.81640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="17.26953125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="4.26953125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.54296875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="17.453125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="27.7265625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.7265625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="7.26953125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.453125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="16.7265625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="5.453125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="13.7265625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="18.453125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="25.1796875" collapsed="true"/>
+    <col min="38" max="16384" style="1" width="12.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="19.5" r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2576,7 +2682,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="19.5" r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -2677,7 +2783,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="19.5" r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2778,7 +2884,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="19.5" r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
@@ -2879,7 +2985,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="19.5" r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2980,7 +3086,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
         <v>260</v>
       </c>
@@ -3085,7 +3191,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3093,8 +3199,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A29DF0-E80A-4D1A-9523-089EBE8AD58D}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A29DF0-E80A-4D1A-9523-089EBE8AD58D}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD6"/>
@@ -3102,17 +3208,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.81640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.1796875" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="31.81640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="25.81640625" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="5.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="6.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="9.1796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="26.81640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="11.7265625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="29.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="10.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="31.81640625" collapsed="true"/>
+    <col min="11" max="16384" style="2" width="25.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -3174,8 +3280,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3183,8 +3289,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE1261-B725-4177-BF21-774BDC019B75}">
-  <dimension ref="A1:AK19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE1261-B725-4177-BF21-774BDC019B75}">
+  <dimension ref="A1:AL19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -3192,44 +3298,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="2" collapsed="1"/>
-    <col min="2" max="2" width="26.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.26953125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.1796875" style="2" collapsed="1"/>
-    <col min="5" max="5" width="10.81640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.26953125" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.81640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.54296875" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.1796875" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.26953125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="31.81640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.7265625" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="9.1796875" style="2" collapsed="1"/>
-    <col min="17" max="17" width="28.1796875" style="2" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="9.1796875" style="2" collapsed="1"/>
-    <col min="20" max="20" width="25" style="2" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22.26953125" style="2" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="9.1796875" style="2" collapsed="1"/>
-    <col min="23" max="23" width="17.7265625" style="2" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.54296875" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="16" style="2" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="19.1796875" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18.81640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.81640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="21.26953125" style="2" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="22" style="2" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="24.453125" style="2" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="21.81640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="18.7265625" style="2" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.1796875" style="2" collapsed="1"/>
-    <col min="35" max="35" width="30.453125" style="2" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="25.26953125" style="2" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="26" style="2" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="9.1796875" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="26.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="20.26953125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.1796875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="10.81640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="25.26953125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="11.81640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="28.54296875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="13.1796875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="32.26953125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="31.81640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="2" width="18.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="2" width="20.7265625" collapsed="true"/>
+    <col min="14" max="16" style="2" width="9.1796875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="2" width="28.1796875" collapsed="true"/>
+    <col min="18" max="19" style="2" width="9.1796875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="2" width="25.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="2" width="22.26953125" collapsed="true"/>
+    <col min="22" max="22" style="2" width="9.1796875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="2" width="17.7265625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="2" width="15.54296875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="2" width="16.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="2" width="19.1796875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="2" width="18.81640625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="2" width="13.81640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="2" width="21.26953125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="2" width="22.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="2" width="24.453125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="2" width="21.81640625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="2" width="18.7265625" collapsed="true"/>
+    <col min="34" max="34" style="2" width="9.1796875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="2" width="30.453125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="2" width="25.26953125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="2" width="26.0" collapsed="true"/>
+    <col min="38" max="16384" style="2" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="1" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3342,12 +3448,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="2" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
@@ -3443,12 +3549,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="3" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>31</v>
@@ -3544,12 +3650,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="4" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
@@ -3648,12 +3754,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="5" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>31</v>
@@ -3755,12 +3861,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="6" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
@@ -3859,12 +3965,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="7" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
@@ -3963,12 +4069,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="8" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
@@ -4067,12 +4173,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="9" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -4171,12 +4277,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="10" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
@@ -4275,12 +4381,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="11" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
@@ -4379,12 +4485,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="12" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>31</v>
@@ -4483,12 +4589,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="13" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>31</v>
@@ -4587,12 +4693,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="14" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>31</v>
@@ -4691,12 +4797,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="15" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
@@ -4795,12 +4901,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="16" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>31</v>
@@ -4899,12 +5005,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="17" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>31</v>
@@ -5003,12 +5109,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="18" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>31</v>
@@ -5107,7 +5213,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="29" r="19" s="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>220</v>
       </c>
@@ -5218,8 +5324,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -5227,52 +5333,52 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF6F86-8ED4-4308-B6F8-71B93F250506}">
-  <dimension ref="A1:AJ19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF6F86-8ED4-4308-B6F8-71B93F250506}">
+  <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="33.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="42.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="14.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="20.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="17.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="5.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="16.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="25.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="16384" width="50.54296875" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="22.26953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7265625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="28.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="32.54296875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.1796875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="19.453125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.26953125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="33.1796875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="19.453125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="12.453125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="42.453125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="14.7265625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="10.81640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="20.7265625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="13.453125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.54296875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="15.0" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="5.453125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="16.81640625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="25.54296875" collapsed="true"/>
+    <col min="37" max="16384" style="1" width="50.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -5390,7 +5496,7 @@
         <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
@@ -5491,7 +5597,7 @@
         <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>31</v>
@@ -5592,7 +5698,7 @@
         <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>218</v>
@@ -5698,7 +5804,7 @@
         <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>31</v>
@@ -5803,7 +5909,7 @@
         <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
@@ -5906,7 +6012,7 @@
         <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
@@ -6009,7 +6115,7 @@
         <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
@@ -6112,7 +6218,7 @@
         <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -6215,7 +6321,7 @@
         <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
@@ -6318,7 +6424,7 @@
         <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
@@ -6421,7 +6527,7 @@
         <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>31</v>
@@ -6524,7 +6630,7 @@
         <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>31</v>
@@ -6627,7 +6733,7 @@
         <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>31</v>
@@ -6730,7 +6836,7 @@
         <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
@@ -6833,7 +6939,7 @@
         <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>31</v>
@@ -6936,7 +7042,7 @@
         <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>31</v>
@@ -7039,7 +7145,7 @@
         <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>31</v>
@@ -7137,7 +7243,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>220</v>
       </c>
@@ -7246,13 +7352,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E68805-B27C-428C-BFE2-4FA9EF8F5B1E}">
-  <dimension ref="A1:AH3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E68805-B27C-428C-BFE2-4FA9EF8F5B1E}">
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -7260,41 +7366,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="42.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="6.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="11.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="74.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="16384" width="50.54296875" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="22.26953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7265625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="28.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="32.54296875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.1796875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="19.453125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.26953125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.1796875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="12.453125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="42.453125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="7.26953125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.453125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="74.453125" collapsed="true"/>
+    <col min="35" max="16384" style="1" width="50.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.35">
@@ -7478,7 +7584,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
@@ -7558,7 +7664,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -7566,8 +7672,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9839FF8-C1B0-4ABF-93FF-3EB28089C08C}">
-  <dimension ref="A1:AF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9839FF8-C1B0-4ABF-93FF-3EB28089C08C}">
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -7575,39 +7681,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="42.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="7.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="7.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="7.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="6.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="16384" width="50.54296875" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="6.26953125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="22.26953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7265625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="28.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="32.54296875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.1796875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.7265625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="19.453125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.26953125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="10.54296875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.1796875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="12.453125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="42.453125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="7.26953125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="8.1796875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="11.453125" collapsed="true"/>
+    <col min="33" max="16384" style="1" width="50.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.35">
@@ -7780,7 +7886,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -7788,8 +7894,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58603BCF-4622-4E65-9487-561DE995DE00}">
-  <dimension ref="A1:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58603BCF-4622-4E65-9487-561DE995DE00}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -7797,15 +7903,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="12.1796875" style="1" collapsed="1"/>
-    <col min="5" max="5" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="12.1796875" style="1" collapsed="1"/>
-    <col min="13" max="13" width="24.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="12.1796875" style="1" collapsed="1"/>
+    <col min="1" max="4" style="1" width="12.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="32.26953125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="30.54296875" collapsed="true"/>
+    <col min="10" max="12" style="1" width="12.1796875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="24.453125" collapsed="true"/>
+    <col min="14" max="16384" style="1" width="12.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
@@ -8031,7 +8137,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
